--- a/regionseng/5/business sector/by kind of activity_nace rev.2.xlsx
+++ b/regionseng/5/business sector/by kind of activity_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019361F-480E-4116-A39D-7310FB36D150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="60" yWindow="15" windowWidth="14790" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="25">
   <si>
     <t>Construction</t>
   </si>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -316,6 +317,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,6 +369,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,10 +561,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -538,12 +575,12 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -563,7 +600,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2006</v>
@@ -610,8 +647,14 @@
       <c r="P5" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
@@ -660,8 +703,14 @@
       <c r="P6" s="8">
         <v>1247.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="8">
+        <v>1449.7</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1357.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -710,8 +759,14 @@
       <c r="P7" s="9">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="R7" s="9">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -760,8 +815,14 @@
       <c r="P8" s="9">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="R8" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -810,8 +871,14 @@
       <c r="P9" s="9">
         <v>542.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="9">
+        <v>676.1</v>
+      </c>
+      <c r="R9" s="9">
+        <v>499.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -860,8 +927,14 @@
       <c r="P10" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="9">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="R10" s="9">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -910,8 +983,14 @@
       <c r="P11" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -960,8 +1039,14 @@
       <c r="P12" s="9">
         <v>167.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="9">
+        <v>177.3</v>
+      </c>
+      <c r="R12" s="9">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1095,14 @@
       <c r="P13" s="9">
         <v>376.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="9">
+        <v>388.5</v>
+      </c>
+      <c r="R13" s="9">
+        <v>425.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1151,14 @@
       <c r="P14" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R14" s="9">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1110,8 +1207,14 @@
       <c r="P15" s="9">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="9">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="R15" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1263,14 @@
       <c r="P16" s="9">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q16" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="R16" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1319,14 @@
       <c r="P17" s="9">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="R17" s="9">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -1260,8 +1375,14 @@
       <c r="P18" s="9">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q18" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="R18" s="9">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -1310,8 +1431,14 @@
       <c r="P19" s="10">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q19" s="10">
+        <v>5</v>
+      </c>
+      <c r="R19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1360,8 +1487,14 @@
       <c r="P20" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R20" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -1410,8 +1543,14 @@
       <c r="P21" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q21" s="10">
+        <v>10.7</v>
+      </c>
+      <c r="R21" s="10">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1460,8 +1599,14 @@
       <c r="P22" s="10">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="R22" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1510,8 +1655,14 @@
       <c r="P23" s="10">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="10">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1683,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5">
         <v>2006</v>
@@ -1579,8 +1730,14 @@
       <c r="P27" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
@@ -1629,8 +1786,14 @@
       <c r="P28" s="8">
         <v>867.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q28" s="8">
+        <v>1073.2</v>
+      </c>
+      <c r="R28" s="8">
+        <v>998.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -1679,8 +1842,14 @@
       <c r="P29" s="9">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="R29" s="9">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -1729,8 +1898,14 @@
       <c r="P30" s="9">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q30" s="9">
+        <v>12</v>
+      </c>
+      <c r="R30" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
@@ -1779,8 +1954,14 @@
       <c r="P31" s="9">
         <v>484.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q31" s="9">
+        <v>637.70000000000005</v>
+      </c>
+      <c r="R31" s="9">
+        <v>481.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -1828,6 +2009,12 @@
       </c>
       <c r="P32" s="9" t="s">
         <v>21</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>56.2</v>
+      </c>
+      <c r="R32" s="9">
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -1879,6 +2066,12 @@
       <c r="P33" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="Q33" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1929,6 +2122,12 @@
       <c r="P34" s="9">
         <v>181.3</v>
       </c>
+      <c r="Q34" s="9">
+        <v>186.4</v>
+      </c>
+      <c r="R34" s="9">
+        <v>196</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -1979,6 +2178,12 @@
       <c r="P35" s="9">
         <v>47.5</v>
       </c>
+      <c r="Q35" s="9">
+        <v>51.4</v>
+      </c>
+      <c r="R35" s="9">
+        <v>84.4</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -2029,6 +2234,12 @@
       <c r="P36" s="9">
         <v>14.8</v>
       </c>
+      <c r="Q36" s="9">
+        <v>20.6</v>
+      </c>
+      <c r="R36" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
@@ -2079,6 +2290,12 @@
       <c r="P37" s="9">
         <v>47</v>
       </c>
+      <c r="Q37" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="R37" s="9">
+        <v>69.5</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
@@ -2129,6 +2346,12 @@
       <c r="P38" s="9">
         <v>2.5</v>
       </c>
+      <c r="Q38" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="R38" s="9">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
@@ -2179,6 +2402,12 @@
       <c r="P39" s="9">
         <v>5.0999999999999996</v>
       </c>
+      <c r="Q39" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="R39" s="9">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -2229,6 +2458,12 @@
       <c r="P40" s="9">
         <v>5.4</v>
       </c>
+      <c r="Q40" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="R40" s="9">
+        <v>16.899999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -2279,6 +2514,12 @@
       <c r="P41" s="10">
         <v>2.1</v>
       </c>
+      <c r="Q41" s="10">
+        <v>5</v>
+      </c>
+      <c r="R41" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
@@ -2329,6 +2570,12 @@
       <c r="P42" s="10">
         <v>1</v>
       </c>
+      <c r="Q42" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R42" s="10">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
@@ -2379,6 +2626,12 @@
       <c r="P43" s="10">
         <v>7.5</v>
       </c>
+      <c r="Q43" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="R43" s="10">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -2429,6 +2682,12 @@
       <c r="P44" s="10">
         <v>0.7</v>
       </c>
+      <c r="Q44" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="R44" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -2478,6 +2737,12 @@
       </c>
       <c r="P45" s="10">
         <v>0.3</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>1</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0.7</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -2503,7 +2768,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5">
         <v>2006</v>
@@ -2550,8 +2815,14 @@
       <c r="P49" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>23</v>
       </c>
@@ -2600,8 +2871,14 @@
       <c r="P50" s="11">
         <v>11466.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="11">
+        <v>13017</v>
+      </c>
+      <c r="R50" s="11">
+        <v>13462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
@@ -2650,8 +2927,14 @@
       <c r="P51" s="12">
         <v>116.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="12">
+        <v>148</v>
+      </c>
+      <c r="R51" s="12">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>7</v>
       </c>
@@ -2700,8 +2983,14 @@
       <c r="P52" s="12">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="12">
+        <v>196</v>
+      </c>
+      <c r="R52" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>24</v>
       </c>
@@ -2750,8 +3039,14 @@
       <c r="P53" s="12">
         <v>2140.6999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="12">
+        <v>2383</v>
+      </c>
+      <c r="R53" s="12">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
@@ -2800,8 +3095,14 @@
       <c r="P54" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="9">
+        <v>259</v>
+      </c>
+      <c r="R54" s="9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
@@ -2850,8 +3151,14 @@
       <c r="P55" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="13">
+        <v>80</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>0</v>
       </c>
@@ -2900,8 +3207,14 @@
       <c r="P56" s="12">
         <v>1886</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="12">
+        <v>2115</v>
+      </c>
+      <c r="R56" s="12">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>10</v>
       </c>
@@ -2950,8 +3263,14 @@
       <c r="P57" s="12">
         <v>2997.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="12">
+        <v>3606</v>
+      </c>
+      <c r="R57" s="12">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -3000,8 +3319,14 @@
       <c r="P58" s="12">
         <v>630.29999999999995</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="12">
+        <v>830</v>
+      </c>
+      <c r="R58" s="12">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>12</v>
       </c>
@@ -3050,8 +3375,14 @@
       <c r="P59" s="12">
         <v>1460.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="12">
+        <v>1653</v>
+      </c>
+      <c r="R59" s="12">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -3100,8 +3431,14 @@
       <c r="P60" s="12">
         <v>94</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="12">
+        <v>141</v>
+      </c>
+      <c r="R60" s="12">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>14</v>
       </c>
@@ -3150,8 +3487,14 @@
       <c r="P61" s="12">
         <v>378</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="12">
+        <v>274</v>
+      </c>
+      <c r="R61" s="12">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>15</v>
       </c>
@@ -3200,8 +3543,14 @@
       <c r="P62" s="12">
         <v>270.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="12">
+        <v>424</v>
+      </c>
+      <c r="R62" s="12">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>16</v>
       </c>
@@ -3250,8 +3599,14 @@
       <c r="P63" s="12">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="12">
+        <v>114</v>
+      </c>
+      <c r="R63" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>17</v>
       </c>
@@ -3299,6 +3654,12 @@
       </c>
       <c r="P64" s="12">
         <v>107</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>112</v>
+      </c>
+      <c r="R64" s="12">
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -3350,6 +3711,12 @@
       <c r="P65" s="12">
         <v>565</v>
       </c>
+      <c r="Q65" s="12">
+        <v>572</v>
+      </c>
+      <c r="R65" s="12">
+        <v>546</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
@@ -3400,6 +3767,12 @@
       <c r="P66" s="12">
         <v>27</v>
       </c>
+      <c r="Q66" s="12">
+        <v>42</v>
+      </c>
+      <c r="R66" s="12">
+        <v>57</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
@@ -3449,6 +3822,12 @@
       </c>
       <c r="P67" s="12">
         <v>71</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>68</v>
+      </c>
+      <c r="R67" s="12">
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
@@ -3523,6 +3902,12 @@
       <c r="P71" s="6">
         <v>2020</v>
       </c>
+      <c r="Q71" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
@@ -3573,6 +3958,12 @@
       <c r="P72" s="8">
         <v>963.1</v>
       </c>
+      <c r="Q72" s="8">
+        <v>962.4</v>
+      </c>
+      <c r="R72" s="8">
+        <v>1112.4000000000001</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
@@ -3623,6 +4014,12 @@
       <c r="P73" s="9">
         <v>485.3</v>
       </c>
+      <c r="Q73" s="9">
+        <v>526.9</v>
+      </c>
+      <c r="R73" s="9">
+        <v>761.4</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
@@ -3673,6 +4070,12 @@
       <c r="P74" s="9">
         <v>933.5</v>
       </c>
+      <c r="Q74" s="9">
+        <v>825.7</v>
+      </c>
+      <c r="R74" s="9">
+        <v>1170.5</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -3723,6 +4126,12 @@
       <c r="P75" s="9">
         <v>1592.4</v>
       </c>
+      <c r="Q75" s="9">
+        <v>1643.2</v>
+      </c>
+      <c r="R75" s="9">
+        <v>1783.3</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
@@ -3773,6 +4182,12 @@
       <c r="P76" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="Q76" s="9">
+        <v>2097</v>
+      </c>
+      <c r="R76" s="9">
+        <v>2048.1999999999998</v>
+      </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
@@ -3823,6 +4238,12 @@
       <c r="P77" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="Q77" s="9">
+        <v>120.8</v>
+      </c>
+      <c r="R77" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
@@ -3873,6 +4294,12 @@
       <c r="P78" s="9">
         <v>1300</v>
       </c>
+      <c r="Q78" s="9">
+        <v>1122.9000000000001</v>
+      </c>
+      <c r="R78" s="9">
+        <v>1195.5</v>
+      </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
@@ -3923,6 +4350,12 @@
       <c r="P79" s="9">
         <v>508.4</v>
       </c>
+      <c r="Q79" s="9">
+        <v>427.4</v>
+      </c>
+      <c r="R79" s="9">
+        <v>764.4</v>
+      </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
@@ -3973,8 +4406,14 @@
       <c r="P80" s="9">
         <v>233</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="9">
+        <v>351.9</v>
+      </c>
+      <c r="R80" s="9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
@@ -4023,8 +4462,14 @@
       <c r="P81" s="9">
         <v>713.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="9">
+        <v>871</v>
+      </c>
+      <c r="R81" s="9">
+        <v>966.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>13</v>
       </c>
@@ -4073,8 +4518,14 @@
       <c r="P82" s="9">
         <v>544.29999999999995</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="9">
+        <v>750.9</v>
+      </c>
+      <c r="R82" s="9">
+        <v>814.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
@@ -4123,8 +4574,14 @@
       <c r="P83" s="9">
         <v>437.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="9">
+        <v>201</v>
+      </c>
+      <c r="R83" s="9">
+        <v>271.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>15</v>
       </c>
@@ -4173,8 +4630,14 @@
       <c r="P84" s="9">
         <v>785.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="9">
+        <v>560.79999999999995</v>
+      </c>
+      <c r="R84" s="9">
+        <v>910.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>16</v>
       </c>
@@ -4223,8 +4686,14 @@
       <c r="P85" s="10">
         <v>784.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="10">
+        <v>969.6</v>
+      </c>
+      <c r="R85" s="10">
+        <v>553.70000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>17</v>
       </c>
@@ -4273,8 +4742,14 @@
       <c r="P86" s="10">
         <v>120</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="10">
+        <v>442.7</v>
+      </c>
+      <c r="R86" s="10">
+        <v>480.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>18</v>
       </c>
@@ -4323,8 +4798,14 @@
       <c r="P87" s="10">
         <v>598.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="10">
+        <v>646.4</v>
+      </c>
+      <c r="R87" s="10">
+        <v>701.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>19</v>
       </c>
@@ -4373,8 +4854,14 @@
       <c r="P88" s="10">
         <v>345.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="10">
+        <v>223.2</v>
+      </c>
+      <c r="R88" s="10">
+        <v>389.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>20</v>
       </c>
@@ -4422,6 +4909,12 @@
       </c>
       <c r="P89" s="10">
         <v>130.19999999999999</v>
+      </c>
+      <c r="Q89" s="10">
+        <v>437.5</v>
+      </c>
+      <c r="R89" s="10">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
